--- a/SchVictorina.WebAPI/Config/lakes.xlsx
+++ b/SchVictorina.WebAPI/Config/lakes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8FF7FA-F9EA-4DFF-BE70-2B31FD3E4525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6848B5-8F98-4311-A442-4449AA201D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B91B6F05-4041-4164-A1D2-D32F89617D9A}"/>
   </bookViews>
@@ -181,10 +181,10 @@
     <t>В каком озере больше всего воды</t>
   </si>
   <si>
-    <t>Какое самое большое озеро в {Страна]</t>
-  </si>
-  <si>
     <t>В каком озере больше всего воды в {Страна}</t>
+  </si>
+  <si>
+    <t>Какое самое большое озеро в {Страна}</t>
   </si>
 </sst>
 </file>
@@ -967,7 +967,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +998,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
